--- a/java/StyleConvert/src/test/resources/test05.xlsx
+++ b/java/StyleConvert/src/test/resources/test05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -207,9 +207,6 @@
     <t>gebouw_punt_kerktoren_10</t>
   </si>
   <si>
-    <t>["in","typegebouw","toren"]</t>
-  </si>
-  <si>
     <t>gebouw_vlak_postkantoor</t>
   </si>
   <si>
@@ -238,6 +235,15 @@
   </si>
   <si>
     <t>["all",["_IN","typegebouw","klokkentoren","toren"],["!_IN","typegebouw", "kerk","moskee","synagoge"]]</t>
+  </si>
+  <si>
+    <t>["in","typegebouw","toren","watertoren"]</t>
+  </si>
+  <si>
+    <t>gebouw_punt_vuurtoren_10</t>
+  </si>
+  <si>
+    <t>["in","typegebouw","vuurtoren"]</t>
   </si>
 </sst>
 </file>
@@ -1084,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS10"/>
+  <dimension ref="A1:AS11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1346,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>41</v>
@@ -1366,7 +1372,7 @@
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -1380,7 +1386,7 @@
     </row>
     <row r="9" spans="1:45" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
@@ -1392,22 +1398,22 @@
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" t="s">
         <v>64</v>
-      </c>
-      <c r="V9" t="s">
-        <v>65</v>
       </c>
       <c r="W9" t="b">
         <v>1</v>
       </c>
       <c r="X9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP9" s="2"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -1416,17 +1422,43 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="V10" t="s">
         <v>69</v>
-      </c>
-      <c r="V10" t="s">
-        <v>70</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AR10" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/java/StyleConvert/src/test/resources/test05.xlsx
+++ b/java/StyleConvert/src/test/resources/test05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>["in","typegebouw","vuurtoren"]</t>
+  </si>
+  <si>
+    <t>["all",["==","typeweg","lokale weg"],[ "_IN", "fysiekvoorkomen", "op vast deel van brug","op beweegbaar deel van brug"]</t>
+  </si>
+  <si>
+    <t>fout_missende_blokhaak</t>
   </si>
 </sst>
 </file>
@@ -1090,13 +1096,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS11"/>
+  <dimension ref="A1:AS12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,6 +1467,23 @@
         <v>45</v>
       </c>
     </row>
+    <row r="12" spans="1:45" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
